--- a/spliced/walkingToRunning/2023-03-30_14-22-52/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-22-52/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.229663805724545</v>
+        <v>-9.370760740737579</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.525337374588474</v>
+        <v>-3.25683893229624</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.96132779876562</v>
+        <v>-5.812264925753899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.021905657392623</v>
+        <v>-8.167156538812145</v>
       </c>
       <c r="B3" t="n">
-        <v>-16.9095842352818</v>
+        <v>-0.02954524458807972</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.796676506284199</v>
+        <v>-3.384951503568034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-9.370760740737579</v>
+        <v>-0.9182361909166679</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.25683893229624</v>
+        <v>-0.4588523148410963</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.812264925753899</v>
+        <v>-0.8686674579775859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-8.167156538812145</v>
+        <v>5.347650556003387</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.02954524458807972</v>
+        <v>3.73906264585607</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.384951503568034</v>
+        <v>-1.996283573262832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9182361909166679</v>
+        <v>10.92234480758596</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4588523148410963</v>
+        <v>3.812681239115181</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8686674579775859</v>
+        <v>-1.331586267613695</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.347650556003387</v>
+        <v>9.719275569484333</v>
       </c>
       <c r="B7" t="n">
-        <v>3.73906264585607</v>
+        <v>0.7055869749765016</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.996283573262832</v>
+        <v>-0.7485139332207429</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.92234480758596</v>
+        <v>13.93544812655545</v>
       </c>
       <c r="B8" t="n">
-        <v>3.812681239115181</v>
+        <v>-16.89472820316476</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.331586267613695</v>
+        <v>-4.748856436612479</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.719275569484333</v>
+        <v>7.450619108536684</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7055869749765016</v>
+        <v>-0.9767160588260171</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7485139332207429</v>
+        <v>19.51188305815956</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.93544812655545</v>
+        <v>9.203229472647893</v>
       </c>
       <c r="B10" t="n">
-        <v>-16.89472820316476</v>
+        <v>-3.916383311759566</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.748856436612479</v>
+        <v>12.78814014158619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.450619108536684</v>
+        <v>5.404519542849628</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9767160588260171</v>
+        <v>-19.64550725151458</v>
       </c>
       <c r="C11" t="n">
-        <v>19.51188305815956</v>
+        <v>-2.510032804843359</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.203229472647893</v>
+        <v>13.85390501755906</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.916383311759566</v>
+        <v>10.65629918758675</v>
       </c>
       <c r="C12" t="n">
-        <v>12.78814014158619</v>
+        <v>-23.50188240638136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.404519542849628</v>
+        <v>-15.78896728791737</v>
       </c>
       <c r="B13" t="n">
-        <v>-19.64550725151458</v>
+        <v>-2.495026884036708</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.510032804843359</v>
+        <v>-9.361624100628198</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.85390501755906</v>
+        <v>9.923073837659718</v>
       </c>
       <c r="B14" t="n">
-        <v>10.65629918758675</v>
+        <v>-36.7092630550327</v>
       </c>
       <c r="C14" t="n">
-        <v>-23.50188240638136</v>
+        <v>23.39232449509959</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-15.78896728791737</v>
+        <v>-7.913778024561013</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.495026884036708</v>
+        <v>-1.389618308296037</v>
       </c>
       <c r="C15" t="n">
-        <v>-9.361624100628198</v>
+        <v>10.58147436029777</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.923073837659718</v>
+        <v>22.76746183283226</v>
       </c>
       <c r="B16" t="n">
-        <v>-36.7092630550327</v>
+        <v>-2.0813869372752</v>
       </c>
       <c r="C16" t="n">
-        <v>23.39232449509959</v>
+        <v>18.41511002708894</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-7.913778024561013</v>
+        <v>-10.96762119483142</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.389618308296037</v>
+        <v>-13.92066524471113</v>
       </c>
       <c r="C17" t="n">
-        <v>10.58147436029777</v>
+        <v>-14.51778084767945</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>22.76746183283226</v>
+        <v>1.213289821849271</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.0813869372752</v>
+        <v>1.019793061649235</v>
       </c>
       <c r="C18" t="n">
-        <v>18.41511002708894</v>
+        <v>-14.16178052565629</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-10.96762119483142</v>
+        <v>-7.05744662867424</v>
       </c>
       <c r="B19" t="n">
-        <v>-13.92066524471113</v>
+        <v>-7.422974802250357</v>
       </c>
       <c r="C19" t="n">
-        <v>-14.51778084767945</v>
+        <v>-4.164491389132067</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.213289821849271</v>
+        <v>4.854760260603785</v>
       </c>
       <c r="B20" t="n">
-        <v>1.019793061649235</v>
+        <v>-2.305751679709482</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.16178052565629</v>
+        <v>28.47659013605825</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-7.05744662867424</v>
+        <v>3.906654929683194</v>
       </c>
       <c r="B21" t="n">
-        <v>-7.422974802250357</v>
+        <v>12.70785129771528</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.164491389132067</v>
+        <v>6.405859976332387</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36.5629992182982</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-53.32195605627643</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10.55735367024117</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>24.49468200994281</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.5662195973802113</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-16.59405546058915</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-4.553085171799378</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.362173399773924</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-25.30839441912213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-26.14233835142689</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-26.40326150402269</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16.80009495834494</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-10.68485793376924</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.987670397866637</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.468654218302412</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11.52886270721615</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.051807858825063</v>
+      </c>
+      <c r="C27" t="n">
+        <v>21.48786570044184</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-43.52052723983955</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-14.64106700646965</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-27.88186194993908</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-13.80793043283201</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.756517190200164</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-21.9789466857904</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-4.44925512771311</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.411408648771987</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.979007841774775</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4.063052345725026</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-3.658945868996846</v>
+      </c>
+      <c r="C31" t="n">
+        <v>20.40397767459713</v>
       </c>
     </row>
   </sheetData>
